--- a/documentation/Journal.xlsx
+++ b/documentation/Journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Simply-Rugby-Management-Web-App\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simply-Rugby-Management-Web-App\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C116F7-80EE-40C2-8FB5-857461DE2C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D427A7-1B17-4D82-A48A-000BF0807F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F6539E4-E239-4DD2-BD4C-A38A5B3E66B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F6539E4-E239-4DD2-BD4C-A38A5B3E66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,61 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>Database testing done</t>
-  </si>
-  <si>
-    <t>Functionality Testing Done</t>
-  </si>
-  <si>
-    <t>Testing Update</t>
-  </si>
-  <si>
-    <t>Commenting</t>
-  </si>
-  <si>
-    <t>Improved commentary</t>
-  </si>
-  <si>
-    <t>Comments Improvements</t>
-  </si>
-  <si>
-    <t>Add event commentary</t>
-  </si>
-  <si>
-    <t>Login changes &amp; comments</t>
-  </si>
-  <si>
-    <t>Comments &amp; Logical Improvements</t>
-  </si>
-  <si>
-    <t>Commented SQL class</t>
-  </si>
-  <si>
-    <t>Create Usability Test Forms.docx</t>
-  </si>
-  <si>
-    <t>Improved comments</t>
-  </si>
-  <si>
-    <t>Commentary</t>
-  </si>
-  <si>
-    <t>Commenting Doctor Class</t>
-  </si>
-  <si>
-    <t>Update components.php</t>
-  </si>
-  <si>
-    <t>Update coach.php</t>
-  </si>
-  <si>
-    <t>JS validation</t>
-  </si>
-  <si>
-    <t>JS form validation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>Commits on Apr 7, 2024</t>
   </si>
@@ -128,19 +74,304 @@
     <t>Fixed Problem with Games</t>
   </si>
   <si>
-    <t>Almost finished commenting</t>
-  </si>
-  <si>
-    <t>Create Database Testing Document</t>
-  </si>
-  <si>
-    <t>Update Database Testing Document</t>
-  </si>
-  <si>
     <t>Commit Date</t>
   </si>
   <si>
     <t>Commit Entry</t>
+  </si>
+  <si>
+    <t>Form Improvement</t>
+  </si>
+  <si>
+    <t>Mar 31, 2024</t>
+  </si>
+  <si>
+    <t>Update Pages Tweak</t>
+  </si>
+  <si>
+    <t>Mar 29, 2024</t>
+  </si>
+  <si>
+    <t>Clean up</t>
+  </si>
+  <si>
+    <t>Update Tweak</t>
+  </si>
+  <si>
+    <t>Update Operation Tweaks</t>
+  </si>
+  <si>
+    <t>Tweaks</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Checklist &amp; Changes</t>
+  </si>
+  <si>
+    <t>Mar 28, 2024</t>
+  </si>
+  <si>
+    <t>Checklist &amp; Clean up</t>
+  </si>
+  <si>
+    <t>Update Session</t>
+  </si>
+  <si>
+    <t>Game Update Done</t>
+  </si>
+  <si>
+    <t>Mar 27, 2024</t>
+  </si>
+  <si>
+    <t>Update Game Progress</t>
+  </si>
+  <si>
+    <t>Delete Game</t>
+  </si>
+  <si>
+    <t>View Game Details</t>
+  </si>
+  <si>
+    <t>Game Page &amp; View Events</t>
+  </si>
+  <si>
+    <t>Mar 26, 2024</t>
+  </si>
+  <si>
+    <t>Database change</t>
+  </si>
+  <si>
+    <t>Adding Game/Session</t>
+  </si>
+  <si>
+    <t>Mar 25, 2024</t>
+  </si>
+  <si>
+    <t>Calendar Overhaul</t>
+  </si>
+  <si>
+    <t>Mar 24, 2024</t>
+  </si>
+  <si>
+    <t>Display Event Info</t>
+  </si>
+  <si>
+    <t>Mar 22, 2024</t>
+  </si>
+  <si>
+    <t>Event Deletion</t>
+  </si>
+  <si>
+    <t>Create Event</t>
+  </si>
+  <si>
+    <t>Timetable</t>
+  </si>
+  <si>
+    <t>Styling Calendar</t>
+  </si>
+  <si>
+    <t>Success Page Styling</t>
+  </si>
+  <si>
+    <t>Fixed redirection</t>
+  </si>
+  <si>
+    <t>System Testing</t>
+  </si>
+  <si>
+    <t>Mar 19, 2024</t>
+  </si>
+  <si>
+    <t>Update Junior and Member</t>
+  </si>
+  <si>
+    <t>Update-player.php</t>
+  </si>
+  <si>
+    <t>Mar 18, 2024</t>
+  </si>
+  <si>
+    <t>system test</t>
+  </si>
+  <si>
+    <t>Mar 15, 2024</t>
+  </si>
+  <si>
+    <t>Primary Delete Commands</t>
+  </si>
+  <si>
+    <t>Create IC-Test-Case-Planning-and-Execution-T...</t>
+  </si>
+  <si>
+    <t>Merge branch 'main' of https://github.com/Do...</t>
+  </si>
+  <si>
+    <t>Update/Remove Junior</t>
+  </si>
+  <si>
+    <t>Add junior and testing docs</t>
+  </si>
+  <si>
+    <t>Mar 14, 2024</t>
+  </si>
+  <si>
+    <t>Add Junior.php</t>
+  </si>
+  <si>
+    <t>Mar 13, 2024</t>
+  </si>
+  <si>
+    <t>Adding add junior page</t>
+  </si>
+  <si>
+    <t>Mar 12, 2024</t>
+  </si>
+  <si>
+    <t>Fixing filename problem and cleaning up</t>
+  </si>
+  <si>
+    <t>Mar 8, 2024</t>
+  </si>
+  <si>
+    <t>Bits and bobs</t>
+  </si>
+  <si>
+    <t>Added new member sign up system</t>
+  </si>
+  <si>
+    <t>Mar 5, 2024</t>
+  </si>
+  <si>
+    <t>fixed registration</t>
+  </si>
+  <si>
+    <t>Mar 4, 2024</t>
+  </si>
+  <si>
+    <t>Update utils.php</t>
+  </si>
+  <si>
+    <t>Mar 2, 2024</t>
+  </si>
+  <si>
+    <t>Mar 1, 2024</t>
+  </si>
+  <si>
+    <t>Player adding system done</t>
+  </si>
+  <si>
+    <t>Feb 28, 2024</t>
+  </si>
+  <si>
+    <t>Working on adding player system</t>
+  </si>
+  <si>
+    <t>Feb 26, 2024</t>
+  </si>
+  <si>
+    <t>fixed problem with profiles</t>
+  </si>
+  <si>
+    <t>Feb 23, 2024</t>
+  </si>
+  <si>
+    <t>fixing players and add player form</t>
+  </si>
+  <si>
+    <t>adding players form</t>
+  </si>
+  <si>
+    <t>adding more stuff</t>
+  </si>
+  <si>
+    <t>Feb 22, 2024</t>
+  </si>
+  <si>
+    <t>adding nice reponsivity and layouts</t>
+  </si>
+  <si>
+    <t>edited register system</t>
+  </si>
+  <si>
+    <t>Feb 19, 2024</t>
+  </si>
+  <si>
+    <t>skill profile ui</t>
+  </si>
+  <si>
+    <t>Feb 18, 2024</t>
+  </si>
+  <si>
+    <t>improving player profile ui</t>
+  </si>
+  <si>
+    <t>added player's skill profile</t>
+  </si>
+  <si>
+    <t>Feb 16, 2024</t>
+  </si>
+  <si>
+    <t>Adding player &amp; junior positions</t>
+  </si>
+  <si>
+    <t>Player skill profile</t>
+  </si>
+  <si>
+    <t>Feb 14, 2024</t>
+  </si>
+  <si>
+    <t>trying to get skills to work</t>
+  </si>
+  <si>
+    <t>Feb 13, 2024</t>
+  </si>
+  <si>
+    <t>trying to add skill profile</t>
+  </si>
+  <si>
+    <t>added junior list and profile</t>
+  </si>
+  <si>
+    <t>Feb 12, 2024</t>
+  </si>
+  <si>
+    <t>trying to add juniors</t>
+  </si>
+  <si>
+    <t>palyer list</t>
+  </si>
+  <si>
+    <t>Update sql.php</t>
+  </si>
+  <si>
+    <t>Feb 11, 2024</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>Feb 9, 2024</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>trying to make a weekly calendar</t>
+  </si>
+  <si>
+    <t>Feb 8, 2024</t>
+  </si>
+  <si>
+    <t>Update style.css</t>
+  </si>
+  <si>
+    <t>Added player management system</t>
+  </si>
+  <si>
+    <t>Initial commit</t>
   </si>
 </sst>
 </file>
@@ -556,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DD18B6-31D5-4ACD-8F32-730BFF6C4894}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,258 +800,627 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45393</v>
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45393</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45393</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5">
-        <v>45392</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>45392</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5">
-        <v>45392</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
-        <v>45392</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45391</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5">
-        <v>45391</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45391</v>
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5">
-        <v>45391</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5">
-        <v>45391</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5">
-        <v>45391</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
-        <v>45391</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5">
-        <v>45390</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="5">
-        <v>45390</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5">
-        <v>45390</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45390</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5">
-        <v>45390</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5">
-        <v>45390</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5">
-        <v>45390</v>
+        <v>42</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="5">
-        <v>45390</v>
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5">
-        <v>45390</v>
+        <v>44</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/Journal.xlsx
+++ b/documentation/Journal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simply-Rugby-Management-Web-App\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D427A7-1B17-4D82-A48A-000BF0807F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B6104E-B491-4472-B4DA-72CF9535D71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F6539E4-E239-4DD2-BD4C-A38A5B3E66B1}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
-  <si>
-    <t>Commits on Apr 7, 2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
   <si>
     <t>Update address.php</t>
   </si>
@@ -47,9 +44,6 @@
     <t>Update / Delete Coach Done</t>
   </si>
   <si>
-    <t>Commits on Apr 6, 2024</t>
-  </si>
-  <si>
     <t>Little Tweaks</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Commit Date</t>
   </si>
   <si>
-    <t>Commit Entry</t>
-  </si>
-  <si>
     <t>Form Improvement</t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>Fixed redirection</t>
   </si>
   <si>
-    <t>System Testing</t>
-  </si>
-  <si>
     <t>Mar 19, 2024</t>
   </si>
   <si>
@@ -203,12 +191,6 @@
     <t>Primary Delete Commands</t>
   </si>
   <si>
-    <t>Create IC-Test-Case-Planning-and-Execution-T...</t>
-  </si>
-  <si>
-    <t>Merge branch 'main' of https://github.com/Do...</t>
-  </si>
-  <si>
     <t>Update/Remove Junior</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
     <t>Mar 8, 2024</t>
   </si>
   <si>
-    <t>Bits and bobs</t>
-  </si>
-  <si>
     <t>Added new member sign up system</t>
   </si>
   <si>
@@ -278,93 +257,42 @@
     <t>Feb 23, 2024</t>
   </si>
   <si>
-    <t>fixing players and add player form</t>
-  </si>
-  <si>
-    <t>adding players form</t>
-  </si>
-  <si>
     <t>adding more stuff</t>
   </si>
   <si>
-    <t>Feb 22, 2024</t>
-  </si>
-  <si>
     <t>adding nice reponsivity and layouts</t>
   </si>
   <si>
     <t>edited register system</t>
   </si>
   <si>
-    <t>Feb 19, 2024</t>
-  </si>
-  <si>
     <t>skill profile ui</t>
   </si>
   <si>
-    <t>Feb 18, 2024</t>
-  </si>
-  <si>
-    <t>improving player profile ui</t>
-  </si>
-  <si>
     <t>added player's skill profile</t>
   </si>
   <si>
-    <t>Feb 16, 2024</t>
-  </si>
-  <si>
-    <t>Adding player &amp; junior positions</t>
-  </si>
-  <si>
     <t>Player skill profile</t>
   </si>
   <si>
-    <t>Feb 14, 2024</t>
-  </si>
-  <si>
     <t>trying to get skills to work</t>
   </si>
   <si>
-    <t>Feb 13, 2024</t>
-  </si>
-  <si>
-    <t>trying to add skill profile</t>
-  </si>
-  <si>
     <t>added junior list and profile</t>
   </si>
   <si>
-    <t>Feb 12, 2024</t>
-  </si>
-  <si>
     <t>trying to add juniors</t>
   </si>
   <si>
-    <t>palyer list</t>
-  </si>
-  <si>
     <t>Update sql.php</t>
   </si>
   <si>
-    <t>Feb 11, 2024</t>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
-    <t>Feb 9, 2024</t>
-  </si>
-  <si>
     <t>Calendar</t>
   </si>
   <si>
     <t>trying to make a weekly calendar</t>
   </si>
   <si>
-    <t>Feb 8, 2024</t>
-  </si>
-  <si>
     <t>Update style.css</t>
   </si>
   <si>
@@ -372,13 +300,244 @@
   </si>
   <si>
     <t>Initial commit</t>
+  </si>
+  <si>
+    <t>Commit Name</t>
+  </si>
+  <si>
+    <t>Apr 8, 2024</t>
+  </si>
+  <si>
+    <t>Delete Usability Test Forms.docx</t>
+  </si>
+  <si>
+    <t>Create Usability Test Forms.docx</t>
+  </si>
+  <si>
+    <t>Apr 9, 2024</t>
+  </si>
+  <si>
+    <t>Improved commentary</t>
+  </si>
+  <si>
+    <t>Comments Improvements</t>
+  </si>
+  <si>
+    <t>Add event commentary</t>
+  </si>
+  <si>
+    <t>Login changes &amp; comments</t>
+  </si>
+  <si>
+    <t>Commenting</t>
+  </si>
+  <si>
+    <t>Comments &amp; Logical Improvements</t>
+  </si>
+  <si>
+    <t>Commented SQL class</t>
+  </si>
+  <si>
+    <t>Apr 10, 2024</t>
+  </si>
+  <si>
+    <t>Create Database Testing.xlsx</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Functionality Testing Done</t>
+  </si>
+  <si>
+    <t>Testing Update</t>
+  </si>
+  <si>
+    <t>Apr 11, 2024</t>
+  </si>
+  <si>
+    <t>Comments for update pages</t>
+  </si>
+  <si>
+    <t>Update update-junior.php</t>
+  </si>
+  <si>
+    <t>Commenting Update Pages</t>
+  </si>
+  <si>
+    <t>Create Journal.xlsx</t>
+  </si>
+  <si>
+    <t>Database testing done</t>
+  </si>
+  <si>
+    <t>Update Database Testing.xlsx</t>
+  </si>
+  <si>
+    <t>Almost finished commenting 😅</t>
+  </si>
+  <si>
+    <t>Apr 12, 2024</t>
+  </si>
+  <si>
+    <t>Improving Comments</t>
+  </si>
+  <si>
+    <t>Fixed some bits</t>
+  </si>
+  <si>
+    <t>Commenting finished.</t>
+  </si>
+  <si>
+    <t>Apr 13, 2024</t>
+  </si>
+  <si>
+    <t>Apr 15, 2024</t>
+  </si>
+  <si>
+    <t>Database testing update</t>
+  </si>
+  <si>
+    <t>Add Junior Updat</t>
+  </si>
+  <si>
+    <t>Last Functionality Updates</t>
+  </si>
+  <si>
+    <t>Apr 16, 2024</t>
+  </si>
+  <si>
+    <t>PDF Exporting</t>
+  </si>
+  <si>
+    <t>Organising Files</t>
+  </si>
+  <si>
+    <t>Documentation Update</t>
+  </si>
+  <si>
+    <t>Journal Update</t>
+  </si>
+  <si>
+    <t>Apr 2, 2024</t>
+  </si>
+  <si>
+    <t>Update update-player-skill.php</t>
+  </si>
+  <si>
+    <t>Skill Update Page</t>
+  </si>
+  <si>
+    <t>Style Update</t>
+  </si>
+  <si>
+    <t>Apr 3, 2024</t>
+  </si>
+  <si>
+    <t>Small Update</t>
+  </si>
+  <si>
+    <t>Apr 4, 2024</t>
+  </si>
+  <si>
+    <t>Table Layout Rework</t>
+  </si>
+  <si>
+    <t>Table Layout</t>
+  </si>
+  <si>
+    <t>Address List &amp; Bits</t>
+  </si>
+  <si>
+    <t>List Update</t>
+  </si>
+  <si>
+    <t>Checkbox Update</t>
+  </si>
+  <si>
+    <t>Apr 5, 2024</t>
+  </si>
+  <si>
+    <t>Timetable Update</t>
+  </si>
+  <si>
+    <t>Guardian List Done</t>
+  </si>
+  <si>
+    <t>Doctor List</t>
+  </si>
+  <si>
+    <t>Update address-list.php</t>
+  </si>
+  <si>
+    <t>Checkbox Layout Fixed</t>
+  </si>
+  <si>
+    <t>New Tables</t>
+  </si>
+  <si>
+    <t>Update database.sql</t>
+  </si>
+  <si>
+    <t>Apr 6, 2024</t>
+  </si>
+  <si>
+    <t>Apr 7, 2024</t>
+  </si>
+  <si>
+    <t>Improved comments</t>
+  </si>
+  <si>
+    <t>Commentary</t>
+  </si>
+  <si>
+    <t>Commenting Doctor Class</t>
+  </si>
+  <si>
+    <t>Update components.php</t>
+  </si>
+  <si>
+    <t>Update coach.php</t>
+  </si>
+  <si>
+    <t>JS validation</t>
+  </si>
+  <si>
+    <t>JS form validation</t>
+  </si>
+  <si>
+    <t>Apr 1, 2024</t>
+  </si>
+  <si>
+    <t>Password Criteria Box</t>
+  </si>
+  <si>
+    <t>Register Page Style</t>
+  </si>
+  <si>
+    <t>player list</t>
+  </si>
+  <si>
+    <t>Create IC-Test-Case-Planning-and-Execution-Template-10549.xlsx</t>
+  </si>
+  <si>
+    <t>Merge branch 'main' of https://github.com/DominikSubocz/Simply-Rugby-Management-Web-App</t>
+  </si>
+  <si>
+    <t>Feb 27, 2024</t>
+  </si>
+  <si>
+    <t>Feb 24, 2024</t>
+  </si>
+  <si>
+    <t>Feb 25, 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,8 +545,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,18 +567,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -425,30 +590,54 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,21 +645,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,638 +975,1109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DD18B6-31D5-4ACD-8F32-730BFF6C4894}">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B91" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B101" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B108" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    </row>
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B113" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B114" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    </row>
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>11</v>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Journal.xlsx
+++ b/documentation/Journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simply-Rugby-Management-Web-App\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\Simply-Rugby-Management-Web-App\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DDB075-3F2A-48CC-B069-239E02921E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24BAA48-577A-4C74-9E4B-ECA693CB8E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F6539E4-E239-4DD2-BD4C-A38A5B3E66B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6F6539E4-E239-4DD2-BD4C-A38A5B3E66B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="194">
   <si>
     <t>Update address.php</t>
   </si>
@@ -506,12 +506,6 @@
     <t>player list</t>
   </si>
   <si>
-    <t>Create IC-Test-Case-Planning-and-Execution-Template-10549.xlsx</t>
-  </si>
-  <si>
-    <t>Merge branch 'main' of https://github.com/DominikSubocz/Simply-Rugby-Management-Web-App</t>
-  </si>
-  <si>
     <t>Feb 27, 2024</t>
   </si>
   <si>
@@ -573,13 +567,64 @@
   </si>
   <si>
     <t>Add Junior Update</t>
+  </si>
+  <si>
+    <t>Testing &amp; Packing Up</t>
+  </si>
+  <si>
+    <t>Packing up</t>
+  </si>
+  <si>
+    <t>Update Project Plan Changes Report.docx</t>
+  </si>
+  <si>
+    <t>Create Project Plan Changes Report.docx</t>
+  </si>
+  <si>
+    <t>I found a bug</t>
+  </si>
+  <si>
+    <t>Display Options for Timetable</t>
+  </si>
+  <si>
+    <t>Update README.md</t>
+  </si>
+  <si>
+    <t>Last doxygen update</t>
+  </si>
+  <si>
+    <t>Update task_step_guides.html</t>
+  </si>
+  <si>
+    <t>Doxygen Documentation Update</t>
+  </si>
+  <si>
+    <t>Apr 20, 2024</t>
+  </si>
+  <si>
+    <t>Apr 21, 2024</t>
+  </si>
+  <si>
+    <t>Apr 22, 2024</t>
+  </si>
+  <si>
+    <t>Apr 23, 2024</t>
+  </si>
+  <si>
+    <t>Apr 24, 2024</t>
+  </si>
+  <si>
+    <t>Merge main branch</t>
+  </si>
+  <si>
+    <t>Import Functionality Testing Template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,21 +639,34 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.6"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -761,13 +819,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,28 +835,22 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,20 +1173,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DD18B6-31D5-4ACD-8F32-730BFF6C4894}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" customWidth="1"/>
-    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1142,7 +1194,7 @@
         <v>87</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1150,209 +1202,209 @@
         <v>72</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>170</v>
+      <c r="C3" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>175</v>
+      <c r="C4" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>173</v>
+      <c r="C5" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>173</v>
+      <c r="C6" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>173</v>
+      <c r="C7" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>173</v>
+      <c r="C8" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>175</v>
+      <c r="C9" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>175</v>
+      <c r="C10" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>175</v>
+      <c r="C11" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>175</v>
+      <c r="C12" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>175</v>
+      <c r="C13" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>173</v>
+      <c r="C14" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>173</v>
+      <c r="C15" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>173</v>
+      <c r="C16" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>173</v>
+      <c r="C17" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>174</v>
+      <c r="C18" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>175</v>
+      <c r="C19" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>175</v>
+      <c r="C20" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
@@ -1361,11 +1413,11 @@
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>175</v>
+      <c r="C21" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1373,781 +1425,781 @@
       <c r="A22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>175</v>
+      <c r="C22" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>174</v>
+      <c r="C23" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>173</v>
+      <c r="C24" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>174</v>
+      <c r="C25" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>172</v>
+      <c r="B26" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>174</v>
+      <c r="B27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>175</v>
+      <c r="C28" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>172</v>
+      <c r="C29" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>175</v>
+      <c r="C30" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>175</v>
+      <c r="C31" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>172</v>
+      <c r="C32" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>175</v>
+      <c r="C33" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>175</v>
+      <c r="C34" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>175</v>
+      <c r="C35" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>173</v>
+      <c r="C36" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>175</v>
+      <c r="C37" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>175</v>
+      <c r="C38" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>175</v>
+      <c r="C39" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>173</v>
+      <c r="C40" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>173</v>
+      <c r="C41" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>174</v>
+      <c r="C42" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>175</v>
+      <c r="C43" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>173</v>
+      <c r="C44" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>175</v>
+      <c r="C45" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>175</v>
+      <c r="C46" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>175</v>
+      <c r="C47" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>175</v>
+      <c r="C48" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>175</v>
+      <c r="C49" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>175</v>
+      <c r="C50" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>174</v>
+      <c r="C51" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>174</v>
+      <c r="C52" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>175</v>
+      <c r="C53" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>173</v>
+      <c r="C54" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>173</v>
+      <c r="C55" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>175</v>
+      <c r="C56" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>175</v>
+      <c r="C57" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>173</v>
+      <c r="C58" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>173</v>
+      <c r="C59" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>173</v>
+      <c r="C60" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>173</v>
+      <c r="C61" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>173</v>
+      <c r="C62" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>173</v>
+      <c r="C63" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>173</v>
+      <c r="C64" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>175</v>
+      <c r="C65" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>175</v>
+      <c r="C66" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>173</v>
+      <c r="C67" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>173</v>
+      <c r="C68" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>173</v>
+      <c r="C69" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>173</v>
+      <c r="C70" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>175</v>
+      <c r="C71" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>175</v>
+      <c r="C72" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>171</v>
+      <c r="C73" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>175</v>
+      <c r="C74" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>175</v>
+      <c r="C75" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>175</v>
+      <c r="C76" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>175</v>
+      <c r="C77" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="16" t="s">
-        <v>174</v>
+      <c r="C78" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>175</v>
+      <c r="C79" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>175</v>
+      <c r="C80" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>173</v>
+      <c r="C81" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>173</v>
+      <c r="C82" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>174</v>
+      <c r="C83" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>171</v>
+      <c r="C84" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>175</v>
+      <c r="C85" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>173</v>
+      <c r="C86" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>175</v>
+      <c r="C87" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="16" t="s">
-        <v>174</v>
+      <c r="C88" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>175</v>
+      <c r="C89" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>175</v>
+      <c r="C90" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>174</v>
+      <c r="C91" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>174</v>
+      <c r="C92" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2155,274 +2207,274 @@
         <v>88</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C93" s="16" t="s">
         <v>174</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="16" t="s">
-        <v>174</v>
+      <c r="C94" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>171</v>
+      <c r="C95" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>175</v>
+      <c r="C96" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>171</v>
+      <c r="C97" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>171</v>
+      <c r="C98" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C99" s="17" t="s">
-        <v>172</v>
+      <c r="C99" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="16" t="s">
-        <v>174</v>
+      <c r="C100" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>174</v>
+      <c r="C101" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="16" t="s">
-        <v>174</v>
+      <c r="C102" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="16" t="s">
-        <v>174</v>
+      <c r="C103" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="16" t="s">
-        <v>174</v>
+      <c r="C104" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="16" t="s">
-        <v>174</v>
+      <c r="C105" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="16" t="s">
-        <v>174</v>
+      <c r="C106" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="17" t="s">
-        <v>172</v>
+      <c r="C107" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="17" t="s">
-        <v>172</v>
+      <c r="C108" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>172</v>
+      <c r="C109" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>172</v>
+      <c r="C110" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="17" t="s">
-        <v>172</v>
+      <c r="C111" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C112" s="17" t="s">
-        <v>172</v>
+      <c r="C112" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>172</v>
+      <c r="C113" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>172</v>
+      <c r="C114" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>172</v>
+      <c r="C115" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>172</v>
+      <c r="C116" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C117" s="17" t="s">
-        <v>172</v>
+      <c r="C117" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2430,76 +2482,76 @@
         <v>103</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="16" t="s">
-        <v>174</v>
+      <c r="C119" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C120" s="16" t="s">
-        <v>174</v>
+      <c r="C120" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C121" s="16" t="s">
-        <v>174</v>
+      <c r="C121" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>174</v>
+      <c r="C122" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C123" s="16" t="s">
-        <v>174</v>
+      <c r="C123" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C124" s="17" t="s">
-        <v>172</v>
+      <c r="C124" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2507,200 +2559,355 @@
         <v>115</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C126" s="14" t="s">
-        <v>175</v>
+      <c r="C126" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>171</v>
+      <c r="C127" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C128" s="17" t="s">
-        <v>172</v>
+      <c r="C128" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C129" s="16" t="s">
-        <v>174</v>
+      <c r="C129" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C130" s="17" t="s">
-        <v>172</v>
+      <c r="C130" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>172</v>
+      <c r="C131" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C132" s="17" t="s">
-        <v>172</v>
+      <c r="C132" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C133" s="17" t="s">
-        <v>172</v>
+      <c r="C133" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>172</v>
+      <c r="C134" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C135" s="17" t="s">
-        <v>172</v>
+      <c r="C135" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>172</v>
+      <c r="B136" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C137" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" s="11" t="s">
+      <c r="C139" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B140" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C140" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C142" s="17" t="s">
+    <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C156" s="12" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
